--- a/Data Files/C726.xlsx
+++ b/Data Files/C726.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F982BDC-99C9-6D4D-B328-F344D694327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161C044D-B2B1-E94F-89CF-8078C3E4B060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="16760" xr2:uid="{BB25C514-30E1-524A-8A02-1B4BAA820EF2}"/>
   </bookViews>
@@ -44,17 +44,25 @@
     <t>password</t>
   </si>
   <si>
-    <t>CGARNER024@GMAIL.COM</t>
+    <t>Samm@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,13 +85,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,7 +444,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -441,6 +452,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BAA8811E-7C1B-404B-B6D0-2088E7EEC58B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
